--- a/data_year/zb/能源/一次能源生产总量.xlsx
+++ b/data_year/zb/能源/一次能源生产总量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,1028 +513,596 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.7</v>
+        <v>10.4</v>
       </c>
       <c r="C2" t="n">
-        <v>138569.69580626</v>
+        <v>312124.754849439</v>
       </c>
       <c r="D2" t="n">
-        <v>16.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>16300</v>
+        <v>20301.4</v>
       </c>
       <c r="F2" t="n">
-        <v>72.90000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="G2" t="n">
-        <v>13556</v>
+        <v>42071.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>272</v>
+        <v>957.91</v>
       </c>
       <c r="J2" t="n">
-        <v>7079.62</v>
+        <v>14924.38</v>
       </c>
       <c r="K2" t="n">
-        <v>2224.14</v>
+        <v>7221.72</v>
       </c>
       <c r="L2" t="n">
-        <v>4134.67</v>
+        <v>7360.47</v>
       </c>
       <c r="M2" t="n">
-        <v>11141.9</v>
+        <v>33319.28</v>
       </c>
       <c r="N2" t="n">
-        <v>12184.02</v>
+        <v>38657.8261583967</v>
       </c>
       <c r="O2" t="n">
-        <v>872.29</v>
+        <v>1924.39</v>
       </c>
       <c r="P2" t="n">
-        <v>2053.67</v>
+        <v>2536.97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C3" t="n">
-        <v>147424.990276051</v>
+        <v>340177.506000383</v>
       </c>
       <c r="D3" t="n">
-        <v>15.9</v>
+        <v>8.5</v>
       </c>
       <c r="E3" t="n">
-        <v>16395.87</v>
+        <v>20287.6</v>
       </c>
       <c r="F3" t="n">
-        <v>72.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="G3" t="n">
-        <v>14808.02</v>
+        <v>47130.19</v>
       </c>
       <c r="H3" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>303.29</v>
+        <v>1053.37</v>
       </c>
       <c r="J3" t="n">
-        <v>7485.6</v>
+        <v>15689.7</v>
       </c>
       <c r="K3" t="n">
-        <v>2774.32</v>
+        <v>6989.45</v>
       </c>
       <c r="L3" t="n">
-        <v>4154.66</v>
+        <v>7917.9</v>
       </c>
       <c r="M3" t="n">
-        <v>11768</v>
+        <v>38337.02</v>
       </c>
       <c r="N3" t="n">
-        <v>13730.77</v>
+        <v>43432.9977114693</v>
       </c>
       <c r="O3" t="n">
-        <v>789.35</v>
+        <v>1932.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1864.39</v>
+        <v>2301.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.800000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="C4" t="n">
-        <v>156277.009371784</v>
+        <v>351040.751998501</v>
       </c>
       <c r="D4" t="n">
-        <v>15.3</v>
+        <v>8.5</v>
       </c>
       <c r="E4" t="n">
-        <v>16700</v>
+        <v>20747.8</v>
       </c>
       <c r="F4" t="n">
-        <v>73.09999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="G4" t="n">
-        <v>16540</v>
+        <v>49875.53</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>326.61</v>
+        <v>1106.08</v>
       </c>
       <c r="J4" t="n">
-        <v>7706.1</v>
+        <v>17063.7</v>
       </c>
       <c r="K4" t="n">
-        <v>2879.74</v>
+        <v>8721.07</v>
       </c>
       <c r="L4" t="n">
-        <v>4320.76</v>
+        <v>8975.6</v>
       </c>
       <c r="M4" t="n">
-        <v>13274</v>
+        <v>38928.1</v>
       </c>
       <c r="N4" t="n">
-        <v>14253.34</v>
+        <v>43831.4452174371</v>
       </c>
       <c r="O4" t="n">
-        <v>826.11</v>
+        <v>2131.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.5</v>
+        <v>1929.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.1</v>
+        <v>11.8</v>
       </c>
       <c r="C5" t="n">
-        <v>178298.779911678</v>
+        <v>358783.760868395</v>
       </c>
       <c r="D5" t="n">
-        <v>13.6</v>
+        <v>8.4</v>
       </c>
       <c r="E5" t="n">
-        <v>16959.98</v>
+        <v>20991.9</v>
       </c>
       <c r="F5" t="n">
-        <v>75.7</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>19105.75</v>
+        <v>54316.35</v>
       </c>
       <c r="H5" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="I5" t="n">
-        <v>350.15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8532.780000000001</v>
-      </c>
+        <v>1208.58</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>2836.81</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4790.86</v>
-      </c>
+        <v>9202.92</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>15804</v>
+        <v>42470.1</v>
       </c>
       <c r="N5" t="n">
-        <v>17775.71</v>
-      </c>
-      <c r="O5" t="n">
-        <v>855.3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2004.84</v>
-      </c>
+        <v>48179.38</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="C6" t="n">
-        <v>206107.734452883</v>
+        <v>362212</v>
       </c>
       <c r="D6" t="n">
-        <v>12.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>17587.32</v>
+        <v>21142.9</v>
       </c>
       <c r="F6" t="n">
-        <v>76.7</v>
+        <v>73.5</v>
       </c>
       <c r="G6" t="n">
-        <v>22033.1</v>
+        <v>57944.57</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>414.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9843.6</v>
-      </c>
+        <v>1301.57</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>3535.44</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5265.25</v>
-      </c>
+        <v>10728.82</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>17956</v>
+        <v>44001.107947</v>
       </c>
       <c r="N6" t="n">
-        <v>20537.58</v>
-      </c>
-      <c r="O6" t="n">
-        <v>962.24</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2029.28</v>
-      </c>
+        <v>47980.86</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.4</v>
+        <v>14.5</v>
       </c>
       <c r="C7" t="n">
-        <v>229036.720466258</v>
+        <v>362193</v>
       </c>
       <c r="D7" t="n">
-        <v>11.3</v>
+        <v>8.5</v>
       </c>
       <c r="E7" t="n">
-        <v>18135.29</v>
+        <v>21455.58157</v>
       </c>
       <c r="F7" t="n">
-        <v>77.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="G7" t="n">
-        <v>25002.6</v>
+        <v>58145.73</v>
       </c>
       <c r="H7" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="I7" t="n">
-        <v>493.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>11090.19</v>
-      </c>
+        <v>1346.097221</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>3970.17</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5433</v>
-      </c>
+        <v>11302.7</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>20473.36</v>
+        <v>42841.878322</v>
       </c>
       <c r="N7" t="n">
-        <v>26511.6994</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1006.48</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1767.41</v>
-      </c>
+        <v>44822.542233</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.5</v>
+        <v>16.7</v>
       </c>
       <c r="C8" t="n">
-        <v>244762.871904915</v>
+        <v>345954</v>
       </c>
       <c r="D8" t="n">
-        <v>10.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>18476.57</v>
+        <v>19968.5242</v>
       </c>
       <c r="F8" t="n">
-        <v>77.5</v>
+        <v>69.8</v>
       </c>
       <c r="G8" t="n">
-        <v>28657.26</v>
+        <v>61331.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="I8" t="n">
-        <v>585.53</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11762.4</v>
-      </c>
+        <v>1368.65</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>4357.86</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5594.96</v>
-      </c>
+        <v>11840.48</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>23696.03</v>
+        <v>44370.6848</v>
       </c>
       <c r="N8" t="n">
-        <v>30074.3594</v>
-      </c>
-      <c r="O8" t="n">
-        <v>975.48</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1784.65</v>
-      </c>
+        <v>44911.4756</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.6</v>
+        <v>17.4</v>
       </c>
       <c r="C9" t="n">
-        <v>264172.553948021</v>
+        <v>358867</v>
       </c>
       <c r="D9" t="n">
-        <v>10.1</v>
+        <v>7.6</v>
       </c>
       <c r="E9" t="n">
-        <v>18631.82</v>
+        <v>19150.608103</v>
       </c>
       <c r="F9" t="n">
-        <v>77.8</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>32815.53</v>
+        <v>66044.47</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="I9" t="n">
-        <v>692.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>12359.11</v>
-      </c>
+        <v>1480.348838</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>4852.64</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5917.9</v>
-      </c>
+        <v>11978.65</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>27229.33</v>
+        <v>47546</v>
       </c>
       <c r="N9" t="n">
-        <v>33105.278485</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1153.28</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1967.24</v>
-      </c>
+        <v>43142.553674</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.5</v>
+        <v>18.2</v>
       </c>
       <c r="C10" t="n">
-        <v>277419.414358279</v>
+        <v>378859</v>
       </c>
       <c r="D10" t="n">
-        <v>9.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="E10" t="n">
-        <v>19043.96</v>
+        <v>18932.4204</v>
       </c>
       <c r="F10" t="n">
-        <v>76.8</v>
+        <v>69.2</v>
       </c>
       <c r="G10" t="n">
-        <v>34668.82</v>
+        <v>71661.3323921249</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="I10" t="n">
-        <v>802.99</v>
-      </c>
-      <c r="J10" t="n">
-        <v>13409.15</v>
-      </c>
+        <v>1601.58816</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>5851.87</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6347.18</v>
-      </c>
+        <v>12317.870852</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>27072.3</v>
+        <v>50963.182876</v>
       </c>
       <c r="N10" t="n">
-        <v>32313.93671225</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1158.9</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1737.4</v>
-      </c>
+        <v>44834.1994</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.800000000000001</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>286092.222433687</v>
+        <v>397317</v>
       </c>
       <c r="D11" t="n">
-        <v>9.4</v>
+        <v>6.9</v>
       </c>
       <c r="E11" t="n">
-        <v>18949</v>
+        <v>19101.407729</v>
       </c>
       <c r="F11" t="n">
-        <v>76.8</v>
+        <v>68.5</v>
       </c>
       <c r="G11" t="n">
-        <v>37146.51</v>
+        <v>75034.2765224321</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="I11" t="n">
-        <v>852.6900000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>14288.57</v>
-      </c>
+        <v>1753.622727</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>6156.44</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7320.66</v>
-      </c>
+        <v>13044.3764049</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>29827.76</v>
+        <v>52201.479419</v>
       </c>
       <c r="N11" t="n">
-        <v>35744.0549089507</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1480.3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1353.355</v>
-      </c>
+        <v>47126.16232</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.4</v>
+        <v>19.7</v>
       </c>
       <c r="C12" t="n">
-        <v>312124.754849439</v>
+        <v>407295.2</v>
       </c>
       <c r="D12" t="n">
-        <v>9.300000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="E12" t="n">
-        <v>20301.4</v>
+        <v>19476.86</v>
       </c>
       <c r="F12" t="n">
-        <v>76.2</v>
+        <v>67.5</v>
       </c>
       <c r="G12" t="n">
-        <v>42071.6</v>
+        <v>77790.60000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>957.91</v>
-      </c>
-      <c r="J12" t="n">
-        <v>14924.38</v>
-      </c>
+        <v>1924.95</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>7221.72</v>
-      </c>
-      <c r="L12" t="n">
-        <v>7360.47</v>
-      </c>
+        <v>13552.09</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>33319.28</v>
+        <v>53302.479433</v>
       </c>
       <c r="N12" t="n">
-        <v>38657.8261583967</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1924.39</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2536.97</v>
-      </c>
+        <v>47116.12</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.6</v>
+        <v>20.6</v>
       </c>
       <c r="C13" t="n">
-        <v>340177.506000383</v>
+        <v>427115</v>
       </c>
       <c r="D13" t="n">
-        <v>8.5</v>
+        <v>6.7</v>
       </c>
       <c r="E13" t="n">
-        <v>20287.6</v>
+        <v>19888.11</v>
       </c>
       <c r="F13" t="n">
-        <v>77.8</v>
+        <v>66.7</v>
       </c>
       <c r="G13" t="n">
-        <v>47130.19</v>
+        <v>85342.5</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>1053.37</v>
-      </c>
-      <c r="J13" t="n">
-        <v>15689.7</v>
-      </c>
+        <v>2075.8</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>6989.45</v>
-      </c>
-      <c r="L13" t="n">
-        <v>7917.9</v>
-      </c>
+        <v>13390</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>38337.02</v>
+        <v>58058.68</v>
       </c>
       <c r="N13" t="n">
-        <v>43432.9977114693</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1932.4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2301.8</v>
-      </c>
+        <v>46445.78</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.2</v>
+        <v>20.4</v>
       </c>
       <c r="C14" t="n">
-        <v>351040.751998501</v>
+        <v>466000</v>
       </c>
       <c r="D14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>20747.8</v>
-      </c>
+        <v>6.3</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>76.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>49875.53</v>
+        <v>88487.12</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1106.08</v>
-      </c>
-      <c r="J14" t="n">
-        <v>17063.7</v>
-      </c>
+        <v>2201.1</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>8721.07</v>
-      </c>
-      <c r="L14" t="n">
-        <v>8975.6</v>
-      </c>
+        <v>13521.95</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>38928.1</v>
+        <v>58887.948</v>
       </c>
       <c r="N14" t="n">
-        <v>43831.4452174371</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2131.4</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1929.1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>358783.760868395</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>20991.9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="G15" t="n">
-        <v>54316.35</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1208.58</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>9202.92</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>42470.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>48179.38</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>362212.494048828</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="E16" t="n">
-        <v>21142.9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="G16" t="n">
-        <v>57944.57</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1301.57</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>10728.82</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>44001.107947</v>
-      </c>
-      <c r="N16" t="n">
-        <v>47980.86</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>362193.353949555</v>
-      </c>
-      <c r="D17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>21455.58157</v>
-      </c>
-      <c r="F17" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>58145.73</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1346.097221</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>11302.7</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>42841.878322</v>
-      </c>
-      <c r="N17" t="n">
-        <v>44822.542233</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>345953.664216811</v>
-      </c>
-      <c r="D18" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>19968.5242</v>
-      </c>
-      <c r="F18" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>61331.6</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1368.65</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>11840.48</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>44370.6848</v>
-      </c>
-      <c r="N18" t="n">
-        <v>44911.4756</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>358867.486709399</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="E19" t="n">
-        <v>19150.608103</v>
-      </c>
-      <c r="F19" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="G19" t="n">
-        <v>66044.47</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1480.348838</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>11978.65</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>47546</v>
-      </c>
-      <c r="N19" t="n">
-        <v>43142.553674</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>378859.317496344</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>18932.4204</v>
-      </c>
-      <c r="F20" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="G20" t="n">
-        <v>71661.3323921249</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1601.58816</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>12317.870852</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>50963.182876</v>
-      </c>
-      <c r="N20" t="n">
-        <v>44834.1994</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>397317</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E21" t="n">
-        <v>19101.407729</v>
-      </c>
-      <c r="F21" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>75034.2765224321</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1753.622727</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>13044.3764049</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>52201.479419</v>
-      </c>
-      <c r="N21" t="n">
-        <v>47126.16232</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="C22" t="n">
-        <v>408000</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="G22" t="n">
-        <v>77790.60000000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1924.95</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>13552.09</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>53302.479433</v>
-      </c>
-      <c r="N22" t="n">
-        <v>47116.12</v>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+        <v>47343.64</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
